--- a/TP2/Tabla.xlsx
+++ b/TP2/Tabla.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FACUNDO\UTN\2024\Sintaxis_y_Semantica_de_los_Lenguajes\TPs\24-002-05\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6919467B-E40E-459A-9495-F4AC883B4A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="3795" windowWidth="21600" windowHeight="11385" xr2:uid="{A3E5F28E-6E8E-4CE6-8D5D-C2D9B3F2BCFE}"/>
+    <workbookView xWindow="5580" yWindow="3795" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -89,8 +88,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,14 +110,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,24 +494,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59BC374-2090-4F10-83C3-FC1244930631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:8" ht="15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -540,7 +531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" ht="15">
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
@@ -560,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:8" ht="15">
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
@@ -580,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" ht="15">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -600,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" ht="15">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -620,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:8" ht="15">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -642,6 +633,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>